--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H2">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I2">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J2">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>3.755352755699333</v>
+        <v>0.01497632937666667</v>
       </c>
       <c r="R2">
-        <v>33.798174801294</v>
+        <v>0.13478696439</v>
       </c>
       <c r="S2">
-        <v>0.05969638887997016</v>
+        <v>0.0006124382783924709</v>
       </c>
       <c r="T2">
-        <v>0.05969638887997016</v>
+        <v>0.0006124382783924709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H3">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I3">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J3">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>11.05666468570511</v>
+        <v>0.3030838062561111</v>
       </c>
       <c r="R3">
-        <v>99.50998217134598</v>
+        <v>2.727754256305</v>
       </c>
       <c r="S3">
-        <v>0.1757605737015163</v>
+        <v>0.01239423358311875</v>
       </c>
       <c r="T3">
-        <v>0.1757605737015164</v>
+        <v>0.01239423358311875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H4">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I4">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J4">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>8.547377444338</v>
+        <v>0.198958908135</v>
       </c>
       <c r="R4">
-        <v>76.926396999042</v>
+        <v>1.790630173215</v>
       </c>
       <c r="S4">
-        <v>0.1358720740805791</v>
+        <v>0.008136175968384436</v>
       </c>
       <c r="T4">
-        <v>0.1358720740805791</v>
+        <v>0.008136175968384436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H5">
         <v>1.279705</v>
       </c>
       <c r="I5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N5">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q5">
-        <v>4.231071152198334</v>
+        <v>0.6155543145966665</v>
       </c>
       <c r="R5">
-        <v>38.079640369785</v>
+        <v>5.539988831369999</v>
       </c>
       <c r="S5">
-        <v>0.06725857337826018</v>
+        <v>0.02517232462020995</v>
       </c>
       <c r="T5">
-        <v>0.06725857337826018</v>
+        <v>0.02517232462020995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H6">
         <v>1.279705</v>
       </c>
       <c r="I6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q6">
         <v>12.45729443664611</v>
@@ -818,10 +818,10 @@
         <v>112.115649929815</v>
       </c>
       <c r="S6">
-        <v>0.1980254696323007</v>
+        <v>0.5094254918093778</v>
       </c>
       <c r="T6">
-        <v>0.1980254696323007</v>
+        <v>0.5094254918093778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H7">
         <v>1.279705</v>
       </c>
       <c r="I7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N7">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q7">
-        <v>9.630137162695002</v>
+        <v>8.177572170704998</v>
       </c>
       <c r="R7">
-        <v>86.67123446425502</v>
+        <v>73.59814953634499</v>
       </c>
       <c r="S7">
-        <v>0.1530839978106495</v>
+        <v>0.3344115968402571</v>
       </c>
       <c r="T7">
-        <v>0.1530839978106495</v>
+        <v>0.334411596840257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H8">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N8">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q8">
-        <v>2.126851341075</v>
+        <v>0.07780957098533332</v>
       </c>
       <c r="R8">
-        <v>19.141662069675</v>
+        <v>0.700286138868</v>
       </c>
       <c r="S8">
-        <v>0.03380916601083867</v>
+        <v>0.003181925189957375</v>
       </c>
       <c r="T8">
-        <v>0.03380916601083867</v>
+        <v>0.003181925189957375</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H9">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N9">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q9">
-        <v>6.261963560924999</v>
+        <v>1.574672961862889</v>
       </c>
       <c r="R9">
-        <v>56.35767204832499</v>
+        <v>14.172056656766</v>
       </c>
       <c r="S9">
-        <v>0.09954234294444282</v>
+        <v>0.0643942833747376</v>
       </c>
       <c r="T9">
-        <v>0.09954234294444285</v>
+        <v>0.0643942833747376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H10">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N10">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q10">
-        <v>4.840823848725</v>
+        <v>1.033691694162</v>
       </c>
       <c r="R10">
-        <v>43.567414638525</v>
+        <v>9.303225247458</v>
       </c>
       <c r="S10">
-        <v>0.07695141356144231</v>
+        <v>0.04227153033556457</v>
       </c>
       <c r="T10">
-        <v>0.07695141356144232</v>
+        <v>0.04227153033556456</v>
       </c>
     </row>
   </sheetData>
